--- a/Documentos/Projeto/G5-GPR-Cronograma.xlsx
+++ b/Documentos/Projeto/G5-GPR-Cronograma.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
   <si>
     <t>Cronograma</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Esforço(hrs)</t>
-  </si>
-  <si>
-    <t>Efetivado(hrs)</t>
   </si>
   <si>
     <t>Dependecias</t>
@@ -126,9 +123,6 @@
     <t>Interação 4</t>
   </si>
   <si>
-    <t>Entrega Projeto</t>
-  </si>
-  <si>
     <t>Benedito</t>
   </si>
   <si>
@@ -150,13 +144,16 @@
     <t>1,2,3</t>
   </si>
   <si>
-    <t>Total: 64</t>
-  </si>
-  <si>
     <t>1,2,3,4,5,6,7,8,9</t>
   </si>
   <si>
-    <t>10,11,12</t>
+    <t>Matriz de Rastrabilidade</t>
+  </si>
+  <si>
+    <t>11,12,13</t>
+  </si>
+  <si>
+    <t>Total: 53</t>
   </si>
 </sst>
 </file>
@@ -398,6 +395,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -413,11 +413,8 @@
     <xf numFmtId="10" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -714,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1018"/>
+  <dimension ref="A1:H1019"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -727,83 +724,78 @@
     <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="5" max="5" width="39.28515625" customWidth="1"/>
     <col min="6" max="6" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.85546875" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="17"/>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="39"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="40"/>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="38" t="s">
+      <c r="C3" s="40"/>
+      <c r="D3" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
-      <c r="B4" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="38" t="s">
+      <c r="B4" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-    </row>
-    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
-      <c r="B5" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
+      <c r="B5" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-    </row>
-    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>5</v>
@@ -823,19 +815,16 @@
       <c r="G6" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="18" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="24">
         <v>1</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="26">
         <v>42179</v>
@@ -850,21 +839,18 @@
         <v>1</v>
       </c>
       <c r="G7" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="I7" s="30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="24">
         <v>2</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="26">
         <v>42179</v>
@@ -873,27 +859,24 @@
         <v>42179</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F8" s="28">
         <v>1</v>
       </c>
       <c r="G8" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="I8" s="30">
+        <v>3</v>
+      </c>
+      <c r="H8" s="30">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="24">
         <v>3</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="26">
         <v>42179</v>
@@ -902,27 +885,24 @@
         <v>42179</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F9" s="28">
         <v>1</v>
       </c>
       <c r="G9" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="I9" s="30">
+        <v>3</v>
+      </c>
+      <c r="H9" s="30">
         <v>1.2</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="24">
         <v>4</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="26">
         <v>42179</v>
@@ -931,27 +911,24 @@
         <v>42179</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" s="33">
         <v>1</v>
       </c>
       <c r="G10" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H10" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="24">
         <v>5</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="26">
         <v>42179</v>
@@ -960,27 +937,24 @@
         <v>42179</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F11" s="28">
         <v>1</v>
       </c>
       <c r="G11" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H11" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="I11" s="30">
+        <v>1</v>
+      </c>
+      <c r="H11" s="30">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="24">
         <v>6</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="26">
         <v>42179</v>
@@ -989,27 +963,24 @@
         <v>42179</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12" s="28">
         <v>1</v>
       </c>
       <c r="G12" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="I12" s="30">
+        <v>3</v>
+      </c>
+      <c r="H12" s="30">
         <v>4.5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="24">
         <v>7</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="26">
         <v>42179</v>
@@ -1024,21 +995,18 @@
         <v>1</v>
       </c>
       <c r="G13" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H13" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="I13" s="30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="24">
         <v>8</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="26">
         <v>42179</v>
@@ -1053,21 +1021,18 @@
         <v>1</v>
       </c>
       <c r="G14" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H14" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="I14" s="31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="24">
         <v>9</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="26">
         <v>42179</v>
@@ -1082,279 +1047,296 @@
         <v>1</v>
       </c>
       <c r="G15" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H15" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="I15" s="31">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H15" s="31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="24">
         <v>10</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="C16" s="26">
-        <v>42179</v>
+        <v>42149</v>
       </c>
       <c r="D16" s="26">
         <v>42149</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F16" s="28">
-        <v>0</v>
-      </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="G16" s="29">
+        <v>3</v>
+      </c>
+      <c r="H16" s="31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="24">
         <v>11</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>28</v>
+      <c r="B17" s="32" t="s">
+        <v>26</v>
       </c>
       <c r="C17" s="26">
-        <v>42149</v>
+        <v>42179</v>
       </c>
       <c r="D17" s="26">
         <v>42149</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F17" s="28">
         <v>0</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G17" s="29">
+        <v>5</v>
+      </c>
+      <c r="H17" s="30" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="24">
         <v>12</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C18" s="26">
-        <v>42181</v>
+        <v>42149</v>
       </c>
       <c r="D18" s="26">
-        <v>42151</v>
+        <v>42149</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F18" s="28">
         <v>0</v>
       </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="30">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G18" s="29">
+        <v>3</v>
+      </c>
+      <c r="H18" s="30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="24">
         <v>13</v>
       </c>
-      <c r="B19" s="42" t="s">
-        <v>32</v>
+      <c r="B19" s="25" t="s">
+        <v>30</v>
       </c>
       <c r="C19" s="26">
-        <v>42151</v>
+        <v>42181</v>
       </c>
       <c r="D19" s="26">
         <v>42151</v>
       </c>
-      <c r="E19" s="35" t="s">
+      <c r="E19" s="27" t="s">
         <v>37</v>
       </c>
       <c r="F19" s="28">
         <v>0</v>
       </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G19" s="29">
+        <v>5</v>
+      </c>
+      <c r="H19" s="30">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="24">
         <v>14</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>33</v>
+      <c r="B20" s="37" t="s">
+        <v>31</v>
       </c>
       <c r="C20" s="26">
-        <v>42152</v>
+        <v>42151</v>
       </c>
       <c r="D20" s="26">
-        <v>42153</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>39</v>
+        <v>42151</v>
+      </c>
+      <c r="E20" s="35" t="s">
+        <v>35</v>
       </c>
       <c r="F20" s="28">
         <v>0</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="30">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G20" s="29">
+        <v>3</v>
+      </c>
+      <c r="H20" s="30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="24">
         <v>15</v>
       </c>
-      <c r="B21" s="36" t="s">
-        <v>34</v>
+      <c r="B21" s="25" t="s">
+        <v>32</v>
       </c>
       <c r="C21" s="26">
-        <v>42034</v>
+        <v>42152</v>
       </c>
       <c r="D21" s="26">
-        <v>42156</v>
+        <v>42153</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F21" s="28">
         <v>0</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="31">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="9"/>
-      <c r="B22" s="43" t="s">
+      <c r="G21" s="29">
+        <v>5</v>
+      </c>
+      <c r="H21" s="30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="24">
+        <v>16</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="26">
+        <v>42153</v>
+      </c>
+      <c r="D22" s="26">
+        <v>42153</v>
+      </c>
+      <c r="E22" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="6">
-        <v>42157</v>
-      </c>
-      <c r="D22" s="6">
-        <v>42157</v>
-      </c>
-      <c r="E22" s="11"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="13">
-        <f>SUM(G7:G22)</f>
-        <v>4.5</v>
-      </c>
-      <c r="H23" s="13">
-        <f>SUM(H7:H22)</f>
-        <v>4.5</v>
-      </c>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="F22" s="28">
+        <v>0</v>
+      </c>
+      <c r="G22" s="29">
+        <v>3</v>
+      </c>
+      <c r="H22" s="31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="24">
+        <v>17</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="26">
+        <v>42034</v>
+      </c>
+      <c r="D23" s="26">
+        <v>42156</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F23" s="28">
+        <v>0</v>
+      </c>
+      <c r="G23" s="29">
+        <v>3</v>
+      </c>
+      <c r="H23" s="31">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
-      <c r="B24" s="13"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="11"/>
       <c r="F24" s="12"/>
-      <c r="G24" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="H24" s="13"/>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G24" s="13">
+        <f>SUM(G7:G23)</f>
+        <v>53</v>
+      </c>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="13"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="11"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="G25" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="9"/>
-      <c r="B26" s="11"/>
+      <c r="B26" s="13"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="14"/>
+      <c r="E26" s="11"/>
       <c r="F26" s="12"/>
       <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
+      <c r="B27" s="11"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="11"/>
+      <c r="E27" s="14"/>
       <c r="F27" s="12"/>
       <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="28" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
-      <c r="B28" s="11"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="11"/>
       <c r="F28" s="12"/>
       <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
-      <c r="B29" s="13"/>
+      <c r="B29" s="11"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="14"/>
+      <c r="E29" s="11"/>
       <c r="F29" s="12"/>
       <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="8"/>
-    </row>
-    <row r="30" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
       <c r="B30" s="13"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="11"/>
+      <c r="E30" s="14"/>
       <c r="F30" s="12"/>
       <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="9"/>
       <c r="B31" s="13"/>
       <c r="C31" s="6"/>
@@ -1362,10 +1344,9 @@
       <c r="E31" s="11"/>
       <c r="F31" s="12"/>
       <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="9"/>
       <c r="B32" s="13"/>
       <c r="C32" s="6"/>
@@ -1373,10 +1354,9 @@
       <c r="E32" s="11"/>
       <c r="F32" s="12"/>
       <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="8"/>
-    </row>
-    <row r="33" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="9"/>
       <c r="B33" s="13"/>
       <c r="C33" s="6"/>
@@ -1384,10 +1364,9 @@
       <c r="E33" s="11"/>
       <c r="F33" s="12"/>
       <c r="G33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="8"/>
-    </row>
-    <row r="34" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
       <c r="B34" s="13"/>
       <c r="C34" s="6"/>
@@ -1395,32 +1374,29 @@
       <c r="E34" s="11"/>
       <c r="F34" s="12"/>
       <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="8"/>
-    </row>
-    <row r="35" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="9"/>
-      <c r="B35" s="10"/>
+      <c r="B35" s="13"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="11"/>
       <c r="F35" s="12"/>
       <c r="G35" s="13"/>
-      <c r="H35" s="13"/>
-      <c r="I35" s="8"/>
-    </row>
-    <row r="36" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
-      <c r="B36" s="13"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="11"/>
       <c r="F36" s="12"/>
       <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="8"/>
-    </row>
-    <row r="37" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
       <c r="B37" s="13"/>
       <c r="C37" s="6"/>
@@ -1428,10 +1404,9 @@
       <c r="E37" s="11"/>
       <c r="F37" s="12"/>
       <c r="G37" s="13"/>
-      <c r="H37" s="13"/>
-      <c r="I37" s="8"/>
-    </row>
-    <row r="38" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="9"/>
       <c r="B38" s="13"/>
       <c r="C38" s="6"/>
@@ -1439,10 +1414,9 @@
       <c r="E38" s="11"/>
       <c r="F38" s="12"/>
       <c r="G38" s="13"/>
-      <c r="H38" s="13"/>
-      <c r="I38" s="8"/>
-    </row>
-    <row r="39" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
       <c r="B39" s="13"/>
       <c r="C39" s="6"/>
@@ -1450,10 +1424,9 @@
       <c r="E39" s="11"/>
       <c r="F39" s="12"/>
       <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-      <c r="I39" s="8"/>
-    </row>
-    <row r="40" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="B40" s="13"/>
       <c r="C40" s="6"/>
@@ -1461,54 +1434,49 @@
       <c r="E40" s="11"/>
       <c r="F40" s="12"/>
       <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
-      <c r="I40" s="8"/>
-    </row>
-    <row r="41" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
-      <c r="B41" s="11"/>
+      <c r="B41" s="13"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="11"/>
       <c r="F41" s="12"/>
       <c r="G41" s="13"/>
-      <c r="H41" s="13"/>
-      <c r="I41" s="8"/>
-    </row>
-    <row r="42" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
-      <c r="B42" s="10"/>
+      <c r="B42" s="11"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="11"/>
       <c r="F42" s="12"/>
       <c r="G42" s="13"/>
-      <c r="H42" s="13"/>
-      <c r="I42" s="8"/>
-    </row>
-    <row r="43" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
-      <c r="B43" s="13"/>
+      <c r="B43" s="10"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="14"/>
+      <c r="E43" s="11"/>
       <c r="F43" s="12"/>
       <c r="G43" s="13"/>
-      <c r="H43" s="13"/>
-      <c r="I43" s="8"/>
-    </row>
-    <row r="44" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
       <c r="B44" s="13"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="11"/>
+      <c r="E44" s="14"/>
       <c r="F44" s="12"/>
       <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="8"/>
-    </row>
-    <row r="45" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="9"/>
       <c r="B45" s="13"/>
       <c r="C45" s="6"/>
@@ -1516,10 +1484,9 @@
       <c r="E45" s="11"/>
       <c r="F45" s="12"/>
       <c r="G45" s="13"/>
-      <c r="H45" s="13"/>
-      <c r="I45" s="8"/>
-    </row>
-    <row r="46" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="9"/>
       <c r="B46" s="13"/>
       <c r="C46" s="6"/>
@@ -1527,10 +1494,9 @@
       <c r="E46" s="11"/>
       <c r="F46" s="12"/>
       <c r="G46" s="13"/>
-      <c r="H46" s="13"/>
-      <c r="I46" s="8"/>
-    </row>
-    <row r="47" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="9"/>
       <c r="B47" s="13"/>
       <c r="C47" s="6"/>
@@ -1538,10 +1504,9 @@
       <c r="E47" s="11"/>
       <c r="F47" s="12"/>
       <c r="G47" s="13"/>
-      <c r="H47" s="13"/>
-      <c r="I47" s="8"/>
-    </row>
-    <row r="48" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="B48" s="13"/>
       <c r="C48" s="6"/>
@@ -1549,10 +1514,9 @@
       <c r="E48" s="11"/>
       <c r="F48" s="12"/>
       <c r="G48" s="13"/>
-      <c r="H48" s="13"/>
-      <c r="I48" s="8"/>
-    </row>
-    <row r="49" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="9"/>
       <c r="B49" s="13"/>
       <c r="C49" s="6"/>
@@ -1560,114 +1524,113 @@
       <c r="E49" s="11"/>
       <c r="F49" s="12"/>
       <c r="G49" s="13"/>
-      <c r="H49" s="13"/>
-      <c r="I49" s="8"/>
-    </row>
-    <row r="50" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="9"/>
-      <c r="B50" s="15"/>
+      <c r="B50" s="13"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="11"/>
       <c r="F50" s="12"/>
       <c r="G50" s="13"/>
-      <c r="H50" s="13"/>
-      <c r="I50" s="8"/>
-    </row>
-    <row r="51" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
-      <c r="B51" s="10"/>
+      <c r="B51" s="15"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="11"/>
       <c r="F51" s="12"/>
       <c r="G51" s="13"/>
-      <c r="H51" s="13"/>
-      <c r="I51" s="8"/>
-    </row>
-    <row r="52" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
-      <c r="B52" s="13"/>
+      <c r="B52" s="10"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="11"/>
       <c r="F52" s="12"/>
       <c r="G52" s="13"/>
-      <c r="H52" s="13"/>
-      <c r="I52" s="8"/>
-    </row>
-    <row r="53" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
-      <c r="B53" s="16"/>
+      <c r="B53" s="13"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="11"/>
       <c r="F53" s="12"/>
       <c r="G53" s="13"/>
-      <c r="H53" s="13"/>
-      <c r="I53" s="8"/>
-    </row>
-    <row r="54" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="3"/>
-    </row>
-    <row r="55" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="9"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="2"/>
       <c r="F55" s="3"/>
     </row>
-    <row r="56" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="2"/>
       <c r="F56" s="3"/>
     </row>
-    <row r="57" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="2"/>
       <c r="F57" s="3"/>
     </row>
-    <row r="58" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="2"/>
       <c r="F58" s="3"/>
     </row>
-    <row r="59" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="2"/>
       <c r="F59" s="3"/>
     </row>
-    <row r="60" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="2"/>
       <c r="F60" s="3"/>
     </row>
-    <row r="61" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="2"/>
       <c r="F61" s="3"/>
     </row>
-    <row r="62" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="2"/>
       <c r="F62" s="3"/>
     </row>
-    <row r="63" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="2"/>
       <c r="F63" s="3"/>
     </row>
-    <row r="64" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="2"/>
@@ -7392,10 +7355,16 @@
       <c r="F1017" s="3"/>
     </row>
     <row r="1018" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C1018" s="4"/>
+      <c r="C1018" s="1"/>
       <c r="D1018" s="1"/>
       <c r="E1018" s="2"/>
       <c r="F1018" s="3"/>
+    </row>
+    <row r="1019" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C1019" s="4"/>
+      <c r="D1019" s="1"/>
+      <c r="E1019" s="2"/>
+      <c r="F1019" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Documentos/Projeto/G5-GPR-Cronograma.xlsx
+++ b/Documentos/Projeto/G5-GPR-Cronograma.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>Cronograma</t>
   </si>
@@ -58,9 +58,6 @@
   </si>
   <si>
     <t>Victor</t>
-  </si>
-  <si>
-    <t>Esforço(hrs)</t>
   </si>
   <si>
     <t>Dependecias</t>
@@ -153,7 +150,13 @@
     <t>11,12,13</t>
   </si>
   <si>
-    <t>Total: 53</t>
+    <t>Revisão dos Planos</t>
+  </si>
+  <si>
+    <t>Total: 54</t>
+  </si>
+  <si>
+    <t>Esforço</t>
   </si>
 </sst>
 </file>
@@ -398,6 +401,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -412,9 +418,6 @@
     </xf>
     <xf numFmtId="10" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -711,10 +714,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H1019"/>
+  <dimension ref="A1:H1020"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:XFD17"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -729,73 +732,73 @@
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="17"/>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="40"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="41"/>
       <c r="G1" s="17"/>
       <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="17"/>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17"/>
     </row>
     <row r="3" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="39" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
     </row>
     <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
-      <c r="B4" s="40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="39" t="s">
+      <c r="B4" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
-      <c r="B5" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
+      <c r="B5" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>5</v>
@@ -813,10 +816,10 @@
         <v>9</v>
       </c>
       <c r="G6" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" s="18" t="s">
         <v>13</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -824,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="26">
         <v>42179</v>
@@ -842,7 +845,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -850,7 +853,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="26">
         <v>42179</v>
@@ -859,7 +862,7 @@
         <v>42179</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F8" s="28">
         <v>1</v>
@@ -876,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="26">
         <v>42179</v>
@@ -885,7 +888,7 @@
         <v>42179</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="28">
         <v>1</v>
@@ -902,7 +905,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="26">
         <v>42179</v>
@@ -911,7 +914,7 @@
         <v>42179</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="33">
         <v>1</v>
@@ -920,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -928,7 +931,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="26">
         <v>42179</v>
@@ -937,7 +940,7 @@
         <v>42179</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="28">
         <v>1</v>
@@ -954,7 +957,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="34" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="26">
         <v>42179</v>
@@ -963,7 +966,7 @@
         <v>42179</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F12" s="28">
         <v>1</v>
@@ -980,7 +983,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="26">
         <v>42179</v>
@@ -998,7 +1001,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1006,7 +1009,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" s="26">
         <v>42179</v>
@@ -1024,7 +1027,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1032,7 +1035,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C15" s="26">
         <v>42179</v>
@@ -1058,7 +1061,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="26">
         <v>42149</v>
@@ -1067,7 +1070,7 @@
         <v>42149</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" s="28">
         <v>1</v>
@@ -1084,7 +1087,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C17" s="26">
         <v>42179</v>
@@ -1093,16 +1096,16 @@
         <v>42149</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F17" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="29">
         <v>5</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1110,7 +1113,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C18" s="26">
         <v>42149</v>
@@ -1119,10 +1122,10 @@
         <v>42149</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F18" s="28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="29">
         <v>3</v>
@@ -1136,7 +1139,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="26">
         <v>42181</v>
@@ -1145,7 +1148,7 @@
         <v>42151</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F19" s="28">
         <v>0</v>
@@ -1162,7 +1165,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="26">
         <v>42151</v>
@@ -1171,7 +1174,7 @@
         <v>42151</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F20" s="28">
         <v>0</v>
@@ -1180,33 +1183,33 @@
         <v>3</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="24">
         <v>15</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>32</v>
+      <c r="B21" s="37" t="s">
+        <v>43</v>
       </c>
       <c r="C21" s="26">
         <v>42152</v>
       </c>
       <c r="D21" s="26">
-        <v>42153</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>37</v>
+        <v>42152</v>
+      </c>
+      <c r="E21" s="35" t="s">
+        <v>33</v>
       </c>
       <c r="F21" s="28">
         <v>0</v>
       </c>
       <c r="G21" s="29">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H21" s="30">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1214,42 +1217,42 @@
         <v>16</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C22" s="26">
-        <v>42153</v>
+        <v>42152</v>
       </c>
       <c r="D22" s="26">
         <v>42153</v>
       </c>
-      <c r="E22" s="35" t="s">
-        <v>35</v>
+      <c r="E22" s="27" t="s">
+        <v>36</v>
       </c>
       <c r="F22" s="28">
         <v>0</v>
       </c>
       <c r="G22" s="29">
-        <v>3</v>
-      </c>
-      <c r="H22" s="31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+      <c r="H22" s="30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="24">
         <v>17</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>33</v>
+      <c r="B23" s="25" t="s">
+        <v>26</v>
       </c>
       <c r="C23" s="26">
-        <v>42034</v>
+        <v>42153</v>
       </c>
       <c r="D23" s="26">
-        <v>42156</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>37</v>
+        <v>42153</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>34</v>
       </c>
       <c r="F23" s="28">
         <v>0</v>
@@ -1258,31 +1261,45 @@
         <v>3</v>
       </c>
       <c r="H23" s="31">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="9"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="13">
-        <f>SUM(G7:G23)</f>
-        <v>53</v>
-      </c>
-      <c r="H24" s="8"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="24">
+        <v>18</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="26">
+        <v>42034</v>
+      </c>
+      <c r="D24" s="26">
+        <v>42156</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="28">
+        <v>0</v>
+      </c>
+      <c r="G24" s="29">
+        <v>3</v>
+      </c>
+      <c r="H24" s="31">
+        <v>16</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
-      <c r="B25" s="13"/>
+      <c r="B25" s="10"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="11"/>
       <c r="F25" s="12"/>
-      <c r="G25" s="43" t="s">
-        <v>44</v>
+      <c r="G25" s="13">
+        <f>SUM(G7:G24)</f>
+        <v>54</v>
       </c>
       <c r="H25" s="8"/>
     </row>
@@ -1293,32 +1310,34 @@
       <c r="D26" s="6"/>
       <c r="E26" s="11"/>
       <c r="F26" s="12"/>
-      <c r="G26" s="13"/>
+      <c r="G26" s="38" t="s">
+        <v>44</v>
+      </c>
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="9"/>
-      <c r="B27" s="11"/>
+      <c r="B27" s="13"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="14"/>
+      <c r="E27" s="11"/>
       <c r="F27" s="12"/>
       <c r="G27" s="13"/>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
+      <c r="B28" s="11"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="11"/>
+      <c r="E28" s="14"/>
       <c r="F28" s="12"/>
       <c r="G28" s="13"/>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
-      <c r="B29" s="11"/>
+      <c r="B29" s="10"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="11"/>
@@ -1328,10 +1347,10 @@
     </row>
     <row r="30" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="9"/>
-      <c r="B30" s="13"/>
+      <c r="B30" s="11"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="14"/>
+      <c r="E30" s="11"/>
       <c r="F30" s="12"/>
       <c r="G30" s="13"/>
       <c r="H30" s="8"/>
@@ -1341,7 +1360,7 @@
       <c r="B31" s="13"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="11"/>
+      <c r="E31" s="14"/>
       <c r="F31" s="12"/>
       <c r="G31" s="13"/>
       <c r="H31" s="8"/>
@@ -1388,7 +1407,7 @@
     </row>
     <row r="36" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="9"/>
-      <c r="B36" s="10"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="11"/>
@@ -1398,7 +1417,7 @@
     </row>
     <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="9"/>
-      <c r="B37" s="13"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="11"/>
@@ -1448,7 +1467,7 @@
     </row>
     <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="9"/>
-      <c r="B42" s="11"/>
+      <c r="B42" s="13"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="11"/>
@@ -1458,7 +1477,7 @@
     </row>
     <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="9"/>
-      <c r="B43" s="10"/>
+      <c r="B43" s="11"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="11"/>
@@ -1468,10 +1487,10 @@
     </row>
     <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="9"/>
-      <c r="B44" s="13"/>
+      <c r="B44" s="10"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="14"/>
+      <c r="E44" s="11"/>
       <c r="F44" s="12"/>
       <c r="G44" s="13"/>
       <c r="H44" s="8"/>
@@ -1481,7 +1500,7 @@
       <c r="B45" s="13"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="11"/>
+      <c r="E45" s="14"/>
       <c r="F45" s="12"/>
       <c r="G45" s="13"/>
       <c r="H45" s="8"/>
@@ -1538,7 +1557,7 @@
     </row>
     <row r="51" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
-      <c r="B51" s="15"/>
+      <c r="B51" s="13"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="11"/>
@@ -1548,7 +1567,7 @@
     </row>
     <row r="52" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
-      <c r="B52" s="10"/>
+      <c r="B52" s="15"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="11"/>
@@ -1558,7 +1577,7 @@
     </row>
     <row r="53" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
-      <c r="B53" s="13"/>
+      <c r="B53" s="10"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="11"/>
@@ -1568,7 +1587,7 @@
     </row>
     <row r="54" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="9"/>
-      <c r="B54" s="16"/>
+      <c r="B54" s="13"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="11"/>
@@ -1577,10 +1596,14 @@
       <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="3"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="C56" s="1"/>
@@ -7361,10 +7384,16 @@
       <c r="F1018" s="3"/>
     </row>
     <row r="1019" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="C1019" s="4"/>
+      <c r="C1019" s="1"/>
       <c r="D1019" s="1"/>
       <c r="E1019" s="2"/>
       <c r="F1019" s="3"/>
+    </row>
+    <row r="1020" spans="3:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C1020" s="4"/>
+      <c r="D1020" s="1"/>
+      <c r="E1020" s="2"/>
+      <c r="F1020" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Documentos/Projeto/G5-GPR-Cronograma.xlsx
+++ b/Documentos/Projeto/G5-GPR-Cronograma.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <t>Cronograma</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Palano de Risco</t>
   </si>
   <si>
-    <t>Interação 2</t>
-  </si>
-  <si>
     <t>Relatorio de Marco</t>
   </si>
   <si>
@@ -157,6 +154,12 @@
   </si>
   <si>
     <t>Esforço</t>
+  </si>
+  <si>
+    <t>Entrega</t>
+  </si>
+  <si>
+    <t>Interação 2, Relatorio de Acompanhamento</t>
   </si>
 </sst>
 </file>
@@ -717,7 +720,7 @@
   <dimension ref="A1:H1020"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -816,7 +819,7 @@
         <v>9</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H6" s="18" t="s">
         <v>13</v>
@@ -845,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -862,7 +865,7 @@
         <v>42179</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" s="28">
         <v>1</v>
@@ -888,7 +891,7 @@
         <v>42179</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F9" s="28">
         <v>1</v>
@@ -914,7 +917,7 @@
         <v>42179</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="33">
         <v>1</v>
@@ -923,7 +926,7 @@
         <v>3</v>
       </c>
       <c r="H10" s="30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -940,7 +943,7 @@
         <v>42179</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F11" s="28">
         <v>1</v>
@@ -966,7 +969,7 @@
         <v>42179</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F12" s="28">
         <v>1</v>
@@ -1001,7 +1004,7 @@
         <v>3</v>
       </c>
       <c r="H13" s="30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1027,7 +1030,7 @@
         <v>3</v>
       </c>
       <c r="H14" s="31" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1061,7 +1064,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="26">
         <v>42149</v>
@@ -1070,7 +1073,7 @@
         <v>42149</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" s="28">
         <v>1</v>
@@ -1096,7 +1099,7 @@
         <v>42149</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F17" s="28">
         <v>1</v>
@@ -1105,7 +1108,7 @@
         <v>5</v>
       </c>
       <c r="H17" s="30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -1122,7 +1125,7 @@
         <v>42149</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F18" s="28">
         <v>1</v>
@@ -1139,7 +1142,7 @@
         <v>13</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C19" s="26">
         <v>42181</v>
@@ -1148,7 +1151,7 @@
         <v>42151</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F19" s="28">
         <v>0</v>
@@ -1165,7 +1168,7 @@
         <v>14</v>
       </c>
       <c r="B20" s="37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="26">
         <v>42151</v>
@@ -1174,7 +1177,7 @@
         <v>42151</v>
       </c>
       <c r="E20" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F20" s="28">
         <v>0</v>
@@ -1183,7 +1186,7 @@
         <v>3</v>
       </c>
       <c r="H20" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="5" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -1191,16 +1194,16 @@
         <v>15</v>
       </c>
       <c r="B21" s="37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="26">
-        <v>42152</v>
+        <v>42151</v>
       </c>
       <c r="D21" s="26">
-        <v>42152</v>
+        <v>42151</v>
       </c>
       <c r="E21" s="35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" s="28">
         <v>0</v>
@@ -1217,16 +1220,16 @@
         <v>16</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C22" s="26">
-        <v>42152</v>
+        <v>42151</v>
       </c>
       <c r="D22" s="26">
-        <v>42153</v>
+        <v>42151</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F22" s="28">
         <v>0</v>
@@ -1252,7 +1255,7 @@
         <v>42153</v>
       </c>
       <c r="E23" s="35" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F23" s="28">
         <v>0</v>
@@ -1269,16 +1272,16 @@
         <v>18</v>
       </c>
       <c r="B24" s="36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C24" s="26">
-        <v>42034</v>
+        <v>42153</v>
       </c>
       <c r="D24" s="26">
-        <v>42156</v>
+        <v>42153</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F24" s="28">
         <v>0</v>
@@ -1292,8 +1295,12 @@
     </row>
     <row r="25" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="6"/>
+      <c r="B25" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="26">
+        <v>42153</v>
+      </c>
       <c r="D25" s="6"/>
       <c r="E25" s="11"/>
       <c r="F25" s="12"/>
@@ -1311,7 +1318,7 @@
       <c r="E26" s="11"/>
       <c r="F26" s="12"/>
       <c r="G26" s="38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H26" s="8"/>
     </row>

--- a/Documentos/Projeto/G5-GPR-Cronograma.xlsx
+++ b/Documentos/Projeto/G5-GPR-Cronograma.xlsx
@@ -720,7 +720,7 @@
   <dimension ref="A1:H1020"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A20" sqref="A20:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1223,10 +1223,10 @@
         <v>30</v>
       </c>
       <c r="C22" s="26">
-        <v>42151</v>
+        <v>42152</v>
       </c>
       <c r="D22" s="26">
-        <v>42151</v>
+        <v>42152</v>
       </c>
       <c r="E22" s="27" t="s">
         <v>35</v>

--- a/Documentos/Projeto/G5-GPR-Cronograma.xlsx
+++ b/Documentos/Projeto/G5-GPR-Cronograma.xlsx
@@ -720,7 +720,7 @@
   <dimension ref="A1:H1020"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD21"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
